--- a/Hours_Expenses.xlsx
+++ b/Hours_Expenses.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bosleis\Documents\Stardust\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D14E451-7ADC-4106-A1CF-E99F0ADEB469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7714B8-835C-43F8-92E9-EF6E5D919577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3360" windowWidth="15240" windowHeight="11835" activeTab="1" xr2:uid="{7F05E2EB-2AD1-4C0C-AE0D-5436AF3ECC52}"/>
+    <workbookView xWindow="1410" yWindow="3360" windowWidth="15240" windowHeight="11835" activeTab="2" xr2:uid="{7F05E2EB-2AD1-4C0C-AE0D-5436AF3ECC52}"/>
   </bookViews>
   <sheets>
     <sheet name="Hours" sheetId="1" r:id="rId1"/>
     <sheet name="Expenses" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -73,6 +74,33 @@
   </si>
   <si>
     <t>Total Spent</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>GPA18GT2060-A-H5</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>MISUMI</t>
+  </si>
+  <si>
+    <t>GPA60GT2060-B-H8</t>
+  </si>
+  <si>
+    <t>GT2 Timing Belt Pulley 18 Tooth</t>
+  </si>
+  <si>
+    <t>GT2 Timing Belt Pulley 20 Tooth</t>
   </si>
 </sst>
 </file>
@@ -127,7 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -135,6 +163,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -510,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D457D3EF-C0D0-4740-9C84-7FF3F6E5FFAE}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -574,4 +603,66 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94508B3A-42B8-4A22-8CF8-052B895A670C}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5">
+        <v>32.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Hours_Expenses.xlsx
+++ b/Hours_Expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bosleis\Documents\Stardust\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7714B8-835C-43F8-92E9-EF6E5D919577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9A5AFC-232C-4DE7-A6E8-2FDC3E8A6A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3360" windowWidth="15240" windowHeight="11835" activeTab="2" xr2:uid="{7F05E2EB-2AD1-4C0C-AE0D-5436AF3ECC52}"/>
+    <workbookView xWindow="1410" yWindow="3360" windowWidth="15240" windowHeight="11835" xr2:uid="{7F05E2EB-2AD1-4C0C-AE0D-5436AF3ECC52}"/>
   </bookViews>
   <sheets>
     <sheet name="Hours" sheetId="1" r:id="rId1"/>
@@ -155,15 +155,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -481,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2F7AE7-CCB2-400B-B576-E3DC2D787D99}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,17 +491,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -514,17 +512,22 @@
       <c r="B2">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <f>E2/24</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
         <f>SUM(B2:B200)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -553,25 +556,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -579,23 +582,23 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>210</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>8</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>28.89</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <f>SUM((B2*E2),C2:D2)</f>
         <v>456.89</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <f>SUM(F2:F200)</f>
         <v>456.89</v>
       </c>
@@ -609,28 +612,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94508B3A-42B8-4A22-8CF8-052B895A670C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -638,13 +641,13 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>18.100000000000001</v>
       </c>
     </row>
@@ -652,13 +655,13 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>32.18</v>
       </c>
     </row>

--- a/Hours_Expenses.xlsx
+++ b/Hours_Expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bosleis\Documents\Stardust\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9A5AFC-232C-4DE7-A6E8-2FDC3E8A6A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C35B91C-F6AF-48FC-BB21-BA91B4A8280D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3360" windowWidth="15240" windowHeight="11835" xr2:uid="{7F05E2EB-2AD1-4C0C-AE0D-5436AF3ECC52}"/>
+    <workbookView xWindow="12105" yWindow="2010" windowWidth="15240" windowHeight="11835" activeTab="2" xr2:uid="{7F05E2EB-2AD1-4C0C-AE0D-5436AF3ECC52}"/>
   </bookViews>
   <sheets>
     <sheet name="Hours" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -94,13 +94,52 @@
     <t>MISUMI</t>
   </si>
   <si>
-    <t>GPA60GT2060-B-H8</t>
-  </si>
-  <si>
     <t>GT2 Timing Belt Pulley 18 Tooth</t>
   </si>
   <si>
-    <t>GT2 Timing Belt Pulley 20 Tooth</t>
+    <t>GPA60GT2060-A-H8</t>
+  </si>
+  <si>
+    <t>GT2 Timing Belt Pulley 60 Tooth</t>
+  </si>
+  <si>
+    <t>60-2P06MDFP8</t>
+  </si>
+  <si>
+    <t>18-2P06M6FA5</t>
+  </si>
+  <si>
+    <t>B&amp;B Manufacturing</t>
+  </si>
+  <si>
+    <t>144-2P-06</t>
+  </si>
+  <si>
+    <t>GT2 Belt 144mm</t>
+  </si>
+  <si>
+    <t>GBN1442GT-60</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>B&amp;B Items do not have CAD files so cannot test fitment</t>
+  </si>
+  <si>
+    <t>DW-AD-601-M8-121</t>
+  </si>
+  <si>
+    <t>Inductive Position Sensor</t>
+  </si>
+  <si>
+    <t>Contrinex</t>
+  </si>
+  <si>
+    <t>59060-1-T-03-A</t>
+  </si>
+  <si>
+    <t>Littelfuse</t>
   </si>
 </sst>
 </file>
@@ -134,12 +173,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -155,13 +200,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -479,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2F7AE7-CCB2-400B-B576-E3DC2D787D99}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -610,20 +657,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94508B3A-42B8-4A22-8CF8-052B895A670C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -636,34 +683,158 @@
       <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7.63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D5" s="4">
+        <v>28.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4">
-        <v>32.18</v>
-      </c>
+      <c r="D7" s="7">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="4">
+        <f>D3*2+D7*2+D4*2</f>
+        <v>64.460000000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
